--- a/vignettes/standardisation_outputs/exp2.xlsx
+++ b/vignettes/standardisation_outputs/exp2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,16 @@
           <t>p.value</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>conf.low</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conf.high</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -402,6 +412,12 @@
       <c r="E2">
         <v>1.555132540709635E-14</v>
       </c>
+      <c r="F2">
+        <v>0.2417851131769609</v>
+      </c>
+      <c r="G2">
+        <v>0.4041498271749452</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -421,6 +437,12 @@
       <c r="E3">
         <v>0.1961141108974125</v>
       </c>
+      <c r="F3">
+        <v>-0.07242325075447811</v>
+      </c>
+      <c r="G3">
+        <v>0.01487718907357428</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -440,6 +462,12 @@
       <c r="E4">
         <v>0.1965924015708465</v>
       </c>
+      <c r="F4">
+        <v>-0.0765219875772896</v>
+      </c>
+      <c r="G4">
+        <v>0.01575835661650615</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -459,6 +487,12 @@
       <c r="E5">
         <v>0.08599471051910472</v>
       </c>
+      <c r="F5">
+        <v>-0.08554231145938371</v>
+      </c>
+      <c r="G5">
+        <v>0.005664659719890885</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,6 +512,12 @@
       <c r="E6">
         <v>0.09187503681748656</v>
       </c>
+      <c r="F6">
+        <v>-0.0845742750861021</v>
+      </c>
+      <c r="G6">
+        <v>0.006376522622121683</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -497,6 +537,12 @@
       <c r="E7">
         <v>6.322592562205764E-16</v>
       </c>
+      <c r="F7">
+        <v>0.1536543828898994</v>
+      </c>
+      <c r="G7">
+        <v>0.2499125356388241</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -516,6 +562,12 @@
       <c r="E8">
         <v>0.7815378716159159</v>
       </c>
+      <c r="F8">
+        <v>-0.00120729519242606</v>
+      </c>
+      <c r="G8">
+        <v>0.001604776582844399</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -535,6 +587,12 @@
       <c r="E9">
         <v>0.04686612991763429</v>
       </c>
+      <c r="F9">
+        <v>-0.07638550470031472</v>
+      </c>
+      <c r="G9">
+        <v>-0.0005340969787968192</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -554,6 +612,12 @@
       <c r="E10">
         <v>0.9451709374850192</v>
       </c>
+      <c r="F10">
+        <v>-0.04320404511485494</v>
+      </c>
+      <c r="G10">
+        <v>0.04027778528032111</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -573,6 +637,12 @@
       <c r="E11">
         <v>0.8891946642815849</v>
       </c>
+      <c r="F11">
+        <v>-0.03900474074773055</v>
+      </c>
+      <c r="G11">
+        <v>0.0449678237729194</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -591,6 +661,12 @@
       </c>
       <c r="E12">
         <v>0.9947367274207723</v>
+      </c>
+      <c r="F12">
+        <v>-0.04737522532439117</v>
+      </c>
+      <c r="G12">
+        <v>0.04705772082858172</v>
       </c>
     </row>
   </sheetData>
